--- a/ResultadoEleicoesDistritos/SETÚBAL_SESIMBRA.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_SESIMBRA.xlsx
@@ -597,64 +597,64 @@
         <v>13842</v>
       </c>
       <c r="H2" t="n">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="I2" t="n">
-        <v>1373</v>
+        <v>1312</v>
       </c>
       <c r="J2" t="n">
-        <v>5758</v>
+        <v>5696</v>
       </c>
       <c r="K2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="M2" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N2" t="n">
-        <v>985</v>
+        <v>1099</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R2" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S2" t="n">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="T2" t="n">
-        <v>1007</v>
+        <v>1041</v>
       </c>
       <c r="U2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V2" t="n">
-        <v>8977</v>
+        <v>8856</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>8732</v>
+        <v>8782</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA2" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
